--- a/사운드 자료/솔루나 오브젝트 사운드 목록.xlsx
+++ b/사운드 자료/솔루나 오브젝트 사운드 목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\효과,배경음 및 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\unity-1028\사운드 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29693194-67F0-497E-B60E-EBFA05784852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B9E87-4ADC-4A07-B74B-2E0DA37A310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="180" windowWidth="18900" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="435" windowWidth="16245" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>참고사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,16 @@
   </si>
   <si>
     <t>026Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정 있는 버전_사운드에서 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 사운드 자료 확정 있는 버전_사운드 참고해서 
+힌트 버튼 뜰 시 사운드, 힌트 사용 시 힌트 오브젝트 발생 사운드, 1층 클리어 시 사운드, 실패시 사운드, 밤 낮 변화 사운드, 
+메인화면 음악, 배경음악, 굿엔딩 음악 효과음 찾고, 이미 있는 것들은 목록으로 정리해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -543,44 +553,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -589,19 +621,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,19 +690,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J40"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,428 +1044,459 @@
     <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="2:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="12" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="12" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="18" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B43:F47"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B2:E2"/>
